--- a/alimentos/Ficha de pescado.xlsx
+++ b/alimentos/Ficha de pescado.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
   <workbookPr/>
   <xr:revisionPtr revIDLastSave="0" documentId="11_6D353E318EC99D233A465AA02285101BD5EF8642" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
@@ -10,10 +10,21 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -804,15 +815,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B29F6E6FF83FA94983268F03B4663D92" ma:contentTypeVersion="14" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="e0af9fe4c955a87c166569201c542f59">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="db9d5e65-900d-4136-a2d9-b84c230c9751" xmlns:ns3="067b8a2d-5c94-4f95-8131-a66158bbd083" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91f90cd65e8696f87a03877262d170d8" ns2:_="" ns3:_="">
     <xsd:import namespace="db9d5e65-900d-4136-a2d9-b84c230c9751"/>
@@ -1041,6 +1043,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1053,11 +1064,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70AD4D6B-DE40-4C8A-9664-EE8A1B7E8F1E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA73015A-65E3-493C-BB5F-4D461DE021ED}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA73015A-65E3-493C-BB5F-4D461DE021ED}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70AD4D6B-DE40-4C8A-9664-EE8A1B7E8F1E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
